--- a/Images/Style_Precedences.xlsx
+++ b/Images/Style_Precedences.xlsx
@@ -5,12 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\Save Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
+      <!-- B4P: Insert the path name -->
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD56ED4A-F63F-4FF1-BC9E-8A5729C8E93F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{1E05181F-7658-468F-939A-E5C3994FD589}"/>
+    <workbookView activeTab="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-0000-0000-0000-000000000000}"/>
     <!-- B4P: Insert active sheet number, 1st one  = 0 -->
   </bookViews>
   <sheets>
@@ -19,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{00000000-0000-0000-0000-000000000000}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -394,10 +395,10 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{00000000-0000-0000-0000-000000000000}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{00000000-0000-0000-0000-000000000000}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
@@ -700,8 +701,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6E9DB8-F9F0-48BC-8FB8-C5CBBDF79186}">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
+  <dimension ref="A1:H15"/>
   <!-- B4P: Example: A1:Z9 -->
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1" showGridLines="1">

--- a/Images/Style_Precedences.xlsx
+++ b/Images/Style_Precedences.xlsx
@@ -805,7 +805,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -814,22 +814,22 @@
       <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>1500000</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>12</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25" customFormat="1" s="3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -838,17 +838,17 @@
       <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>620000</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>43</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Images/Style_Precedences.xlsx
+++ b/Images/Style_Precedences.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
       <!-- B4P: Insert the path name -->
     </mc:Choice>
   </mc:AlternateContent>

--- a/Images/Style_Precedences.xlsx
+++ b/Images/Style_Precedences.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\B4P\b4p-docu-maker\"/>
       <!-- B4P: Insert the path name -->
     </mc:Choice>
   </mc:AlternateContent>
